--- a/BestBuy_Giftcards.xlsx
+++ b/BestBuy_Giftcards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/sripathi-akhila_sripathi-akhila_capgemini_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sripat\OneDrive - Capgemini\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{983EB276-D21A-4A7A-A168-3928BFC7626B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58454839-A0E5-484B-AE16-CC18C2DC6EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="5" xr2:uid="{D7DE2F9F-A086-4D33-A7C2-8DDC068F8AEB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{D7DE2F9F-A086-4D33-A7C2-8DDC068F8AEB}"/>
   </bookViews>
   <sheets>
     <sheet name="User Story" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="174">
   <si>
     <t>Issue Type</t>
   </si>
@@ -218,9 +218,6 @@
     <t>Test Case Steps</t>
   </si>
   <si>
-    <t>Test Data</t>
-  </si>
-  <si>
     <t>Expected Result</t>
   </si>
   <si>
@@ -240,17 +237,6 @@
     <t>Validate entering valid recipient name</t>
   </si>
   <si>
-    <t>1.Open browser
-2.Navigate to https://www.bestbuy.com
-3.click on more
-4.Navigate to Gift Card page
-5.Click on bestbuy E-Gift cards
-6. Enter valid recipient name</t>
-  </si>
-  <si>
-    <t>Sender Name: “John”</t>
-  </si>
-  <si>
     <t>Recipient name accepted, 
 no error</t>
   </si>
@@ -270,18 +256,9 @@
     <t>Validate blank recipient name</t>
   </si>
   <si>
-    <t xml:space="preserve">
-1. Leave recipient name blank 
- 2. Click on Send A Digital Card</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>Error message: “Recipient name
- is required”</t>
-  </si>
-  <si>
     <t>Error message displayed</t>
   </si>
   <si>
@@ -294,12 +271,6 @@
     <t>Validate entering valid sender name</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Enter sender name  </t>
-  </si>
-  <si>
-    <t>Recipient Name: “Alice”</t>
-  </si>
-  <si>
     <t>Sender name accepted, no error</t>
   </si>
   <si>
@@ -312,10 +283,6 @@
     <t>Validate blank sender name</t>
   </si>
   <si>
-    <t>1. Leave sender name blank
- 2. Click on Send A Digital Card</t>
-  </si>
-  <si>
     <t>Error message: Sender name is  required</t>
   </si>
   <si>
@@ -326,10 +293,6 @@
   </si>
   <si>
     <t>Validate choosing gift card template</t>
-  </si>
-  <si>
-    <t>1. Select template  
-2. Click Continue</t>
   </si>
   <si>
     <t>Template applied successfully</t>
@@ -615,6 +578,51 @@
       </rPr>
       <t>Test Execution Summary</t>
     </r>
+  </si>
+  <si>
+    <t>Recipient name:"John"
+Sender Name: “Alice”</t>
+  </si>
+  <si>
+    <t>Sender name:"Alice"</t>
+  </si>
+  <si>
+    <t>Error message: “Recipient name
+ is required” ,"Sender name is required"</t>
+  </si>
+  <si>
+    <t>1.Open browser
+2.Navigate to https://www.bestbuy.com
+3.click on more
+4.Navigate to Gift Card page
+5.Click on bestbuy E-Gift cards
+6. Enter valid recipient (Their) name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Leave recipient(their) name blank 
+ 2. Click on Send A Digital Card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Enter recipient(their) name
+2. Enter sender(your) name  </t>
+  </si>
+  <si>
+    <t>1. Leave sender(your) name blank
+ 2. Click on Send A Digital Card</t>
+  </si>
+  <si>
+    <t>1. Enter sender(your) name
+2.Click on Send A Digital Card
+3.Select template  
+4. Click Continue</t>
+  </si>
+  <si>
+    <t>Browser name:ttps://www.bestbuy.com
+Recipient Name: “John”</t>
+  </si>
+  <si>
+    <t>Test  Data</t>
   </si>
 </sst>
 </file>
@@ -1447,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA60F493-24EB-402D-823D-C9871B37BD6E}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="67" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1481,451 +1489,451 @@
         <v>52</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" t="s">
         <v>60</v>
       </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>62</v>
-      </c>
-      <c r="H2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" t="s">
         <v>66</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I3" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>67</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>72</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" t="s">
-        <v>76</v>
+        <v>169</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
       </c>
       <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
         <v>73</v>
       </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
       </c>
       <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>84</v>
-      </c>
-      <c r="D7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>93</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="H9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="H12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G13" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H13" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H15" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="H16" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1953,42 +1961,42 @@
   <sheetData>
     <row r="1" spans="1:6" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2019,42 +2027,42 @@
   <sheetData>
     <row r="1" spans="1:6" ht="45.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2062,13 +2070,13 @@
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
         <v>65</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
@@ -2076,13 +2084,13 @@
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2090,13 +2098,13 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -2104,33 +2112,33 @@
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -2138,13 +2146,13 @@
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -2152,13 +2160,13 @@
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -2166,13 +2174,13 @@
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2180,13 +2188,13 @@
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -2194,33 +2202,33 @@
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2228,13 +2236,13 @@
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -2242,13 +2250,13 @@
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2256,13 +2264,13 @@
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2286,7 +2294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82FAB30-83D0-4F46-BE89-E1EC499DD1F9}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2305,7 +2313,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A1" s="19" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -2318,39 +2326,39 @@
     </row>
     <row r="2" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>161</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C3">
         <v>15</v>

--- a/BestBuy_Giftcards.xlsx
+++ b/BestBuy_Giftcards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sripat\OneDrive - Capgemini\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/sripathi-akhila_sripathi-akhila_capgemini_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58454839-A0E5-484B-AE16-CC18C2DC6EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED64F7F9-432B-4D18-917C-E7E62EF1DF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{D7DE2F9F-A086-4D33-A7C2-8DDC068F8AEB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="2" xr2:uid="{D7DE2F9F-A086-4D33-A7C2-8DDC068F8AEB}"/>
   </bookViews>
   <sheets>
     <sheet name="User Story" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="191">
   <si>
     <t>Issue Type</t>
   </si>
@@ -161,13 +161,6 @@
   </si>
   <si>
     <t>Functional Testing</t>
-  </si>
-  <si>
-    <t>1. Validate entering valid recipient name
-  2. Validate blank recipient name  
-3. Validate entering valid sender name 
- 4. Validate blank sender name  
-5. Validate choosing gift card template</t>
   </si>
   <si>
     <t>TS_BestBuy_GiftCard_02</t>
@@ -228,10 +221,6 @@
   </si>
   <si>
     <t>TC_GiftCard_01</t>
-  </si>
-  <si>
-    <t>Gift card page is open and Recipient
- name entered</t>
   </si>
   <si>
     <t>Validate entering valid recipient name</t>
@@ -591,14 +580,6 @@
  is required” ,"Sender name is required"</t>
   </si>
   <si>
-    <t>1.Open browser
-2.Navigate to https://www.bestbuy.com
-3.click on more
-4.Navigate to Gift Card page
-5.Click on bestbuy E-Gift cards
-6. Enter valid recipient (Their) name</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 1. Leave recipient(their) name blank 
  2. Click on Send A Digital Card</t>
@@ -618,11 +599,87 @@
 4. Click Continue</t>
   </si>
   <si>
-    <t>Browser name:ttps://www.bestbuy.com
+    <t>Test  Data</t>
+  </si>
+  <si>
+    <t>1.Validate that clicking on "More" opens the dropdown menu
+2.Validate navigation to Gift Cards page via More menu
+3.Validate  navigation to E-Gift Cards page
+4. Validate entering valid recipient name
+  5. Validate blank recipient name  
+6. Validate entering valid sender name 
+ 7. Validate blank sender name  
+8. Validate choosing gift card template</t>
+  </si>
+  <si>
+    <t>Recipient
+ name entered</t>
+  </si>
+  <si>
+    <t>User is on BestBuy homepage</t>
+  </si>
+  <si>
+    <t>Click on "More" menu</t>
+  </si>
+  <si>
+    <t>1. Launch browser and navigate to BestBuy homepage
+2. Locate and click on "More" menu
+3. Verify dropdown options are visible</t>
+  </si>
+  <si>
+    <t>URL: https://www.bestbuy.com</t>
+  </si>
+  <si>
+    <t>Dropdown menu opens and 
+displays options</t>
+  </si>
+  <si>
+    <t>Dropdown menu opens and
+ displays options</t>
+  </si>
+  <si>
+    <t>"More" menu is open</t>
+  </si>
+  <si>
+    <t>Click on "Gift Cards" link</t>
+  </si>
+  <si>
+    <t>1. Click on "More" menu
+2. Click on "Gift Cards" link
+3. Verify Gift Cards page is displayed</t>
+  </si>
+  <si>
+    <t>Gift Cards page is displayed</t>
+  </si>
+  <si>
+    <t>Gift Cards page is open</t>
+  </si>
+  <si>
+    <t>Click on "E-Gift Cards" link</t>
+  </si>
+  <si>
+    <t>1. Click on "Gift Cards" link
+2. Click on "E-Gift Cards" link
+3. Verify E-Gift Cards page is displayed</t>
+  </si>
+  <si>
+    <t>E-Gift Cards page is displayed</t>
+  </si>
+  <si>
+    <t>TC_GiftCard_16</t>
+  </si>
+  <si>
+    <t>TC_GiftCard_17</t>
+  </si>
+  <si>
+    <t>TC_GiftCard_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 Recipient Name: “John”</t>
   </si>
   <si>
-    <t>Test  Data</t>
+    <t>1. Enter valid recipient (Their) name</t>
   </si>
 </sst>
 </file>
@@ -784,7 +841,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -809,6 +866,11 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -1345,7 +1407,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1378,7 +1440,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1392,21 +1454,21 @@
         <v>38</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>38</v>
@@ -1415,18 +1477,18 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>38</v>
@@ -1435,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1453,10 +1515,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA60F493-24EB-402D-823D-C9871B37BD6E}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1474,466 +1536,553 @@
   <sheetData>
     <row r="1" spans="1:9" ht="107.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="80.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E2" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="72.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="61" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="G4" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>70</v>
-      </c>
-      <c r="H4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
-        <v>68</v>
+      <c r="C5" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>73</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>75</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" t="s">
         <v>76</v>
       </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
         <v>78</v>
       </c>
-      <c r="H6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="E10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F10" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G10" t="s">
         <v>81</v>
       </c>
-      <c r="F7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="E11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="F11" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="E12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G12" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="H12" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="I12" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="H9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="8" t="s">
+    </row>
+    <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="E13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="F13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="G13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="D14" t="s">
         <v>100</v>
       </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F14" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="G14" t="s">
         <v>103</v>
       </c>
-      <c r="F11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" t="s">
         <v>105</v>
       </c>
-      <c r="H11" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="E15" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H15" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="D16" t="s">
         <v>110</v>
       </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F16" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="G16" t="s">
         <v>113</v>
       </c>
-      <c r="F13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H13" t="s">
-        <v>115</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="D17" t="s">
         <v>116</v>
       </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F17" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="H17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
         <v>121</v>
       </c>
-      <c r="H14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="D18" t="s">
         <v>122</v>
       </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E18" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H18" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" t="s">
         <v>126</v>
       </c>
-      <c r="H15" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="E19" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H16" t="s">
-        <v>130</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>61</v>
+      <c r="H19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1961,42 +2110,42 @@
   <sheetData>
     <row r="1" spans="1:6" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>135</v>
-      </c>
       <c r="F1" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2009,10 +2158,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5319B141-2A78-4EEA-9EB5-7A5568658ABB}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2027,263 +2176,305 @@
   <sheetData>
     <row r="1" spans="1:6" ht="45.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="B2" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="E2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B10" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
+      <c r="C10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B16" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="C16" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C16:C19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2312,53 +2503,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A1" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="A1" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="D2" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>154</v>
-      </c>
       <c r="E2" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C3">
         <v>15</v>
